--- a/data/evaluation/evaluation_South_Winter_Oranges.xlsx
+++ b/data/evaluation/evaluation_South_Winter_Oranges.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1586.58981587957</v>
+        <v>1591.094351038093</v>
       </c>
       <c r="C4" t="n">
-        <v>4611287.672256133</v>
+        <v>4631137.486971888</v>
       </c>
       <c r="D4" t="n">
-        <v>2147.390898801644</v>
+        <v>2152.007780416207</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1512785710874923</v>
+        <v>0.1476251527135826</v>
       </c>
     </row>
     <row r="5">
